--- a/REPORTS/BOM(UPDATE).xlsx
+++ b/REPORTS/BOM(UPDATE).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vvinh\Desktop\School\Projects\Ball Launcher\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vvinh\Desktop\School\ME 507\Basketball-Launcher\Basketball-Launcher\REPORTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F8608B3-726C-4D78-9CB5-1E79BA40C5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33510B8-893F-41E0-B828-EC20E3B749CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{67E34568-A099-4CF5-B5B0-F29A21944494}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67E34568-A099-4CF5-B5B0-F29A21944494}"/>
   </bookViews>
   <sheets>
     <sheet name="AMAZON" sheetId="2" r:id="rId1"/>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
   <si>
     <t>Picture</t>
   </si>
@@ -680,9 +680,6 @@
   </si>
   <si>
     <t>CAPACITORS</t>
-  </si>
-  <si>
-    <t>CHIPS</t>
   </si>
   <si>
     <t>Links</t>
@@ -905,9 +902,6 @@
     <t>CAP ALUM 100UF 20% 25V RADIAL</t>
   </si>
   <si>
-    <t>FUSES, OSCILLATOR , INDUCTOR, TEST POINTS, ETC</t>
-  </si>
-  <si>
     <t>PC TEST POINT MULTIPURPOSE BLUE</t>
   </si>
   <si>
@@ -1060,17 +1054,25 @@
   </si>
   <si>
     <t>CONTROL PCB</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>OTHERS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,13 +1104,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1242,7 +1237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1382,9 +1377,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1398,9 +1390,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1446,6 +1435,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367145</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>62346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1073265</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>600191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A blue circuit board with white text&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8C551A-DD20-1EF9-B9FE-6BF60E0C1272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4953000" y="23386473"/>
+          <a:ext cx="706120" cy="537845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2081,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674FF41F-4EBA-4867-92D2-A23AB111874F}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2107,13 +2156,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2124,7 +2173,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="41">
         <v>15</v>
@@ -2145,7 +2194,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="41">
         <v>40</v>
@@ -2166,7 +2215,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="41">
         <v>27</v>
@@ -2187,7 +2236,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="41">
         <v>22</v>
@@ -2208,7 +2257,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="41">
         <v>2</v>
@@ -2229,7 +2278,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="44">
         <v>10</v>
@@ -2251,7 +2300,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="44">
         <v>6</v>
@@ -2272,7 +2321,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="44">
         <v>10</v>
@@ -2293,7 +2342,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="44">
         <v>1</v>
@@ -2314,7 +2363,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="44">
         <v>10</v>
@@ -2335,7 +2384,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="44">
         <v>3</v>
@@ -2356,7 +2405,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="44">
         <v>18</v>
@@ -2377,7 +2426,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="41">
         <v>20</v>
@@ -2398,7 +2447,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="41">
         <v>10</v>
@@ -2419,7 +2468,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="41">
         <v>10</v>
@@ -2440,7 +2489,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="41">
         <v>6</v>
@@ -2461,7 +2510,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="41">
         <v>10</v>
@@ -2482,7 +2531,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="41">
         <v>6</v>
@@ -2503,7 +2552,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="41">
         <v>10</v>
@@ -2524,7 +2573,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="41">
         <v>10</v>
@@ -2553,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F5EDA6-32D1-4054-89D6-8A895FDE18E8}">
   <dimension ref="A1:AU39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A31" zoomScale="58" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2597,23 +2646,23 @@
         <v>20</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
@@ -2626,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
@@ -2647,7 +2696,7 @@
         <f t="shared" ref="H3:H38" si="0">G3*F3</f>
         <v>0.7</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="50">
         <v>1</v>
       </c>
       <c r="J3" s="30">
@@ -2663,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>4</v>
@@ -2684,11 +2733,11 @@
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="50">
         <v>4</v>
       </c>
       <c r="J4" s="30">
-        <f t="shared" ref="J4:J38" si="1">I4*G4</f>
+        <f t="shared" ref="J2:J38" si="1">I4*G4</f>
         <v>0.84</v>
       </c>
       <c r="K4" s="31" t="s">
@@ -2700,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -2721,7 +2770,7 @@
         <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="50">
         <v>3</v>
       </c>
       <c r="J5" s="30">
@@ -2733,21 +2782,18 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2755,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>8</v>
@@ -2764,7 +2810,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -2776,7 +2822,7 @@
         <f t="shared" si="0"/>
         <v>0.28943999999999998</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="50">
         <v>4</v>
       </c>
       <c r="J7" s="30">
@@ -2784,7 +2830,7 @@
         <v>0.57887999999999995</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2792,7 +2838,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>21</v>
@@ -2813,7 +2859,7 @@
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="50">
         <v>20</v>
       </c>
       <c r="J8" s="30">
@@ -2829,16 +2875,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="6" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="D9" s="6" t="e" vm="26">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -2850,7 +2896,7 @@
         <f>G9*F9</f>
         <v>0.38</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="50">
         <v>5</v>
       </c>
       <c r="J9" s="30">
@@ -2858,24 +2904,24 @@
         <v>0.95</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46">
         <v>7</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="33" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="52" t="s">
         <v>141</v>
-      </c>
-      <c r="D10" s="33" t="e" vm="27">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>143</v>
       </c>
       <c r="F10" s="33">
         <v>1</v>
@@ -2887,7 +2933,7 @@
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="50">
         <v>3</v>
       </c>
       <c r="J10" s="30">
@@ -2895,18 +2941,18 @@
         <v>1.1400000000000001</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <v>8</v>
       </c>
-      <c r="B11" s="55" t="s">
-        <v>84</v>
+      <c r="B11" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="6" t="e" vm="28">
         <v>#VALUE!</v>
@@ -2924,7 +2970,7 @@
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="50">
         <v>2</v>
       </c>
       <c r="J11" s="30">
@@ -2932,7 +2978,7 @@
         <v>0.26</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2940,16 +2986,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" s="6" t="e" vm="29">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="F12" s="6">
         <v>4</v>
@@ -2961,7 +3007,7 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="50">
         <v>10</v>
       </c>
       <c r="J12" s="30">
@@ -2969,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2978,16 +3024,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="6" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
@@ -2999,7 +3045,7 @@
         <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="50">
         <v>3</v>
       </c>
       <c r="J13" s="30">
@@ -3007,7 +3053,7 @@
         <v>1.23</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3015,16 +3061,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="6" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -3036,7 +3082,7 @@
         <f>G14*F14</f>
         <v>0.48</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="50">
         <v>5</v>
       </c>
       <c r="J14" s="30">
@@ -3044,7 +3090,7 @@
         <v>1.2</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3052,16 +3098,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="6" t="e" vm="32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>144</v>
-      </c>
-      <c r="D15" s="6" t="e" vm="32">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>146</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -3073,7 +3119,7 @@
         <f>G15*F15</f>
         <v>0.48</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="50">
         <v>5</v>
       </c>
       <c r="J15" s="30">
@@ -3081,25 +3127,22 @@
         <v>1.2</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3107,16 +3150,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" s="6" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
@@ -3128,7 +3171,7 @@
         <f t="shared" si="0"/>
         <v>1.77</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="50">
         <v>1</v>
       </c>
       <c r="J17" s="30">
@@ -3136,7 +3179,7 @@
         <v>1.77</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3144,16 +3187,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18" s="6" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F18" s="6">
         <v>1</v>
@@ -3165,7 +3208,7 @@
         <f>G18*F18</f>
         <v>0.85</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="50">
         <v>2</v>
       </c>
       <c r="J18" s="30">
@@ -3173,7 +3216,7 @@
         <v>1.7</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3182,7 +3225,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
@@ -3203,7 +3246,7 @@
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="50">
         <v>12</v>
       </c>
       <c r="J19" s="30">
@@ -3220,7 +3263,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>13</v>
@@ -3241,7 +3284,7 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="I20" s="51">
+      <c r="I20" s="50">
         <v>5</v>
       </c>
       <c r="J20" s="30">
@@ -3258,7 +3301,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>32</v>
@@ -3279,7 +3322,7 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="50">
         <v>5</v>
       </c>
       <c r="J21" s="30">
@@ -3296,16 +3339,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D22" s="6" t="e" vm="38">
         <v>#VALUE!</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F22" s="6">
         <v>4</v>
@@ -3317,7 +3360,7 @@
         <f t="shared" si="0"/>
         <v>2.64</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="50">
         <v>8</v>
       </c>
       <c r="J22" s="30">
@@ -3325,7 +3368,7 @@
         <v>5.28</v>
       </c>
       <c r="K22" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3334,16 +3377,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23" s="6" t="e" vm="39">
         <v>#VALUE!</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F23" s="6">
         <v>5</v>
@@ -3355,7 +3398,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="50">
         <v>10</v>
       </c>
       <c r="J23" s="30">
@@ -3363,25 +3406,22 @@
         <v>1</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
+      <c r="A24" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
       <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3390,7 +3430,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>34</v>
@@ -3411,7 +3451,7 @@
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="50">
         <v>2</v>
       </c>
       <c r="J25" s="30">
@@ -3427,16 +3467,16 @@
         <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="6" t="e" vm="41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D26" s="6" t="e" vm="41">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="F26" s="6">
         <v>1</v>
@@ -3448,7 +3488,7 @@
         <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="50">
         <v>2</v>
       </c>
       <c r="J26" s="30">
@@ -3456,7 +3496,7 @@
         <v>0.84</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3465,16 +3505,16 @@
         <v>21</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="6" t="e" vm="42">
         <v>#VALUE!</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="6">
         <v>1</v>
@@ -3486,7 +3526,7 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="50">
         <v>2</v>
       </c>
       <c r="J27" s="30">
@@ -3494,7 +3534,7 @@
         <v>0.4</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3502,16 +3542,16 @@
         <v>22</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="6" t="e" vm="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="D28" s="6" t="e" vm="43">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="F28" s="6">
         <v>1</v>
@@ -3523,7 +3563,7 @@
         <f>G28*F28</f>
         <v>0.34</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="50">
         <v>2</v>
       </c>
       <c r="J28" s="30">
@@ -3531,7 +3571,7 @@
         <v>0.68</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3539,16 +3579,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="6" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" s="6">
         <v>10</v>
@@ -3560,7 +3600,7 @@
         <f>G29*F29</f>
         <v>3.8</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="50">
         <v>10</v>
       </c>
       <c r="J29" s="30">
@@ -3568,7 +3608,7 @@
         <v>3.8</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3576,16 +3616,16 @@
         <v>24</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" s="6" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30" s="6">
         <v>5</v>
@@ -3597,7 +3637,7 @@
         <f>G30*F30</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="50">
         <v>6</v>
       </c>
       <c r="J30" s="30">
@@ -3605,25 +3645,22 @@
         <v>4.32</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="A31" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3631,16 +3668,16 @@
         <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32" s="6" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F32" s="6">
         <v>1</v>
@@ -3652,7 +3689,7 @@
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="50">
         <v>2</v>
       </c>
       <c r="J32" s="30">
@@ -3660,7 +3697,7 @@
         <v>0.7</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3668,16 +3705,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D33" s="6" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F33" s="6">
         <v>1</v>
@@ -3689,7 +3726,7 @@
         <f>G33*F33</f>
         <v>0.47</v>
       </c>
-      <c r="I33" s="51">
+      <c r="I33" s="50">
         <v>2</v>
       </c>
       <c r="J33" s="30">
@@ -3697,7 +3734,7 @@
         <v>0.94</v>
       </c>
       <c r="K33" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3705,16 +3742,16 @@
         <v>27</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="6" t="e" vm="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D34" s="6" t="e" vm="48">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="F34" s="6">
         <v>1</v>
@@ -3726,7 +3763,7 @@
         <f t="shared" si="0"/>
         <v>2.87</v>
       </c>
-      <c r="I34" s="51">
+      <c r="I34" s="50">
         <v>1</v>
       </c>
       <c r="J34" s="30">
@@ -3734,7 +3771,7 @@
         <v>2.87</v>
       </c>
       <c r="K34" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3742,7 +3779,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>15</v>
@@ -3763,7 +3800,7 @@
         <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
-      <c r="I35" s="51">
+      <c r="I35" s="50">
         <v>1</v>
       </c>
       <c r="J35" s="30">
@@ -3780,16 +3817,16 @@
         <v>29</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="6" t="e" vm="50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D36" s="6" t="e" vm="50">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="F36" s="6">
         <v>2</v>
@@ -3801,7 +3838,7 @@
         <f t="shared" si="0"/>
         <v>11.3</v>
       </c>
-      <c r="I36" s="51">
+      <c r="I36" s="50">
         <v>2</v>
       </c>
       <c r="J36" s="30">
@@ -3809,7 +3846,7 @@
         <v>11.3</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3817,16 +3854,16 @@
         <v>30</v>
       </c>
       <c r="B37" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="6" t="e" vm="51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="6" t="e" vm="51">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="F37" s="6">
         <v>1</v>
@@ -3838,41 +3875,49 @@
         <f t="shared" si="0"/>
         <v>72.28</v>
       </c>
-      <c r="I37" s="51">
+      <c r="I37" s="50">
         <v>1</v>
       </c>
       <c r="J37" s="30">
         <f t="shared" si="1"/>
         <v>72.28</v>
       </c>
-      <c r="K37" s="31"/>
+      <c r="K37" s="31" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>151</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F38" s="6">
         <v>1</v>
       </c>
-      <c r="G38" s="53">
+      <c r="G38" s="30">
         <v>26.42</v>
       </c>
       <c r="H38" s="30">
         <f t="shared" si="0"/>
         <v>26.42</v>
       </c>
-      <c r="I38" s="51">
+      <c r="I38" s="50">
         <v>1</v>
       </c>
       <c r="J38" s="30">
         <f t="shared" si="1"/>
         <v>26.42</v>
       </c>
-      <c r="K38" s="31"/>
+      <c r="K38" s="31" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
@@ -3937,8 +3982,11 @@
     <hyperlink ref="K17" r:id="rId28" xr:uid="{736A86CB-7F51-4F42-9687-76315CFB7A49}"/>
     <hyperlink ref="K22" r:id="rId29" xr:uid="{1E84BE1D-7AF0-4C85-BC9C-3B67002B19A8}"/>
     <hyperlink ref="K18" r:id="rId30" xr:uid="{F4442C60-A410-4BA5-8F32-1199AD5CFB3D}"/>
+    <hyperlink ref="K37" r:id="rId31" xr:uid="{238FD04A-53D6-4C61-9AD9-B31A36379629}"/>
+    <hyperlink ref="K38" r:id="rId32" xr:uid="{EE722A43-4A1A-4733-A86C-24FE060C81D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="61" orientation="landscape" r:id="rId31"/>
+  <pageSetup paperSize="5" scale="61" orientation="landscape" r:id="rId33"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>